--- a/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,150 +43,153 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
@@ -196,25 +199,28 @@
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -641,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -691,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9416666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -841,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.9112271540469974</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -909,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <v>0.9090909090909091</v>
@@ -941,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.90625</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8943661971830986</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="M10">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5608465608465608</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4745762711864407</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1141,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4631782945736434</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C13">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D13">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
         <v>0.8846153846153846</v>
@@ -1191,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4313725490196079</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3066666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2416107382550336</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.88125</v>
+        <v>0.86875</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1361111111111111</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.8723404255319149</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,21 +1389,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.006121134020618557</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0.14</v>
+      </c>
+      <c r="F18">
+        <v>0.86</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3085</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.8461538461538461</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.8148148148148148</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1591,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1622,16 +1652,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.7714285714285715</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.7352941176470589</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.7238493723849372</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.7220338983050848</v>
+        <v>0.7108843537414966</v>
       </c>
       <c r="L33">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M33">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1796,24 +1826,24 @@
         <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.7037037037037037</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.7021276595744681</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,12 +1881,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36">
         <v>0.6461538461538462</v>
@@ -1882,7 +1912,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37">
         <v>0.6363636363636364</v>
@@ -1908,16 +1938,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.6285714285714286</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1929,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5842696629213483</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L39">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1955,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.5333333333333333</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1981,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.5294117647058824</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2007,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2033,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2059,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.4383561643835616</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2085,33 +2115,59 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.3220338983050847</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46">
+        <v>0.003809141940657578</v>
+      </c>
+      <c r="L46">
         <v>19</v>
       </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>40</v>
+      <c r="M46">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>0.7</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4969</v>
       </c>
     </row>
   </sheetData>
